--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -34,9 +34,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,34 +480,34 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -518,40 +518,40 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
